--- a/graph-simple.xlsx
+++ b/graph-simple.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
